--- a/day003/database/scoreAppend.xlsx
+++ b/day003/database/scoreAppend.xlsx
@@ -956,7 +956,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -979,10 +979,10 @@
       <c r="D1" s="0" t="n">
         <v>98</v>
       </c>
+      <c r="E1" t="n">
+        <v>293</v>
+      </c>
       <c r="F1" t="n">
-        <v>293</v>
-      </c>
-      <c r="G1" t="n">
         <v>146.5</v>
       </c>
     </row>
@@ -1001,10 +1001,10 @@
       <c r="D2" s="0" t="n">
         <v>70</v>
       </c>
+      <c r="E2" t="n">
+        <v>253</v>
+      </c>
       <c r="F2" t="n">
-        <v>253</v>
-      </c>
-      <c r="G2" t="n">
         <v>126.5</v>
       </c>
     </row>
@@ -1023,10 +1023,10 @@
       <c r="D3" s="0" t="n">
         <v>55</v>
       </c>
+      <c r="E3" t="n">
+        <v>203</v>
+      </c>
       <c r="F3" t="n">
-        <v>203</v>
-      </c>
-      <c r="G3" t="n">
         <v>101.5</v>
       </c>
     </row>
@@ -1045,10 +1045,10 @@
       <c r="D4" s="0" t="n">
         <v>69</v>
       </c>
+      <c r="E4" t="n">
+        <v>215</v>
+      </c>
       <c r="F4" t="n">
-        <v>215</v>
-      </c>
-      <c r="G4" t="n">
         <v>107.5</v>
       </c>
     </row>
@@ -1067,10 +1067,10 @@
       <c r="D5" s="0" t="n">
         <v>76</v>
       </c>
+      <c r="E5" t="n">
+        <v>241</v>
+      </c>
       <c r="F5" t="n">
-        <v>241</v>
-      </c>
-      <c r="G5" t="n">
         <v>120.5</v>
       </c>
     </row>
@@ -1089,10 +1089,10 @@
       <c r="D6" s="0" t="n">
         <v>99</v>
       </c>
+      <c r="E6" t="n">
+        <v>266</v>
+      </c>
       <c r="F6" t="n">
-        <v>266</v>
-      </c>
-      <c r="G6" t="n">
         <v>133</v>
       </c>
     </row>
